--- a/inventario/Plugin/Excel/Detalles_dt/Detalle Vale.xlsx
+++ b/inventario/Plugin/Excel/Detalles_dt/Detalle Vale.xlsx
@@ -15,7 +15,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+  <si>
+    <t>MINISTERIO DE SALUD</t>
+  </si>
+  <si>
+    <t>HOSPITAL NACIONAL SANTA TERESA</t>
+  </si>
+  <si>
+    <t>DEPARTAMENTO DE MANTENIMIENTO</t>
+  </si>
+  <si>
+    <t>SOLICITUD DE MATERIALES</t>
+  </si>
   <si>
     <t>Código</t>
   </si>
@@ -38,10 +50,16 @@
     <t>Total</t>
   </si>
   <si>
+    <t>SubTotal</t>
+  </si>
+  <si>
     <t>CUERPO TERMINAL DE 1</t>
   </si>
   <si>
     <t>C/U</t>
+  </si>
+  <si>
+    <t>Mts</t>
   </si>
 </sst>
 </file>
@@ -85,6 +103,85 @@
   <dxfs count="0"/>
   <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1428750" cy="933450"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1" name="Paid" descr="Paid"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="0" algn="br" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1428750" cy="685800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Paid" descr="Paid"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="0"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="2700000" algn="br" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -377,7 +474,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,49 +491,102 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1"/>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="4" spans="1:7">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="6" spans="1:7">
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2">
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
         <v>70205603</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
         <v>1.0</v>
       </c>
-      <c r="E2">
+      <c r="E8">
+        <v>0.0</v>
+      </c>
+      <c r="F8">
+        <v>2.2</v>
+      </c>
+      <c r="G8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
         <v>1.0</v>
       </c>
-      <c r="F2">
-        <v>2.2</v>
-      </c>
-      <c r="G2">
-        <v>2.2</v>
+      <c r="E9">
+        <v>0.0</v>
+      </c>
+      <c r="F9">
+        <v>1.0</v>
+      </c>
+      <c r="G9">
+        <v>0.0</v>
       </c>
     </row>
   </sheetData>
@@ -452,6 +602,7 @@
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <tableParts count="0"/>
 </worksheet>
 </file>